--- a/frontend/tp21-main/public/exportFiles/eng/TAFE (Post-Year 10  Vocational Pathway) Checklist - Eng.xlsx
+++ b/frontend/tp21-main/public/exportFiles/eng/TAFE (Post-Year 10  Vocational Pathway) Checklist - Eng.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beckii\Desktop\monash\5120 IE\Main project\data\journey\Checklists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beckii\Desktop\monash\5120 IE\Main project\data\journey\exportFiles\exportFiles\eng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B01B93-95D7-4894-8B8A-18CC66392322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB3AF07-AD15-446F-AE48-29D802B74AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -225,8 +225,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -508,7 +508,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -587,8 +587,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A8" xr:uid="{6D45B3E6-AD51-470E-871E-3D9EC02C46E9}">
-      <formula1>"Ready,"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A8" xr:uid="{9E22D7A6-0A56-4CC2-84F5-0936B3DF4174}">
+      <formula1>"√,"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
